--- a/230523 Tools Status.xlsx
+++ b/230523 Tools Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Minecraft\Minecraft Java\Lootdebugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161432E-F58F-4D65-BB7D-D2FE12AAC773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4641FC1-DF8D-4E18-A2A6-DD22ED2A1FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6870" windowWidth="29040" windowHeight="15840" xr2:uid="{B0D27BBE-F0C9-4E7A-A617-7E5DE5D11701}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{B0D27BBE-F0C9-4E7A-A617-7E5DE5D11701}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Mixer Barrel</t>
   </si>
   <si>
-    <t>not implemented</t>
-  </si>
-  <si>
     <t>Shield</t>
   </si>
   <si>
@@ -126,6 +123,10 @@
   </si>
   <si>
     <t>Turret Ammo</t>
+  </si>
+  <si>
+    <t>model missing;
+rotation missing;</t>
   </si>
 </sst>
 </file>
@@ -574,7 +575,7 @@
   <dimension ref="A4:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,16 +628,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -654,16 +655,16 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -677,13 +678,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
@@ -692,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -703,16 +704,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>15</v>

--- a/230523 Tools Status.xlsx
+++ b/230523 Tools Status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Minecraft\Minecraft Java\Lootdebugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4641FC1-DF8D-4E18-A2A6-DD22ED2A1FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572705F9-3C77-4F75-AA90-563C57AD1DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{B0D27BBE-F0C9-4E7A-A617-7E5DE5D11701}"/>
+    <workbookView xWindow="-28920" yWindow="6870" windowWidth="29040" windowHeight="15840" xr2:uid="{B0D27BBE-F0C9-4E7A-A617-7E5DE5D11701}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Class</t>
   </si>
@@ -114,19 +114,18 @@
     <t>Flare</t>
   </si>
   <si>
-    <t>Remote Receiver texture missing;</t>
-  </si>
-  <si>
-    <t>Ammo Texture Missing;
-Zipline model missing;
-Zipline launcher Texture Missing;</t>
-  </si>
-  <si>
     <t>Turret Ammo</t>
   </si>
   <si>
-    <t>model missing;
-rotation missing;</t>
+    <t xml:space="preserve">
+-
+</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Mk1 Armor</t>
   </si>
 </sst>
 </file>
@@ -186,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -214,6 +213,19 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -229,7 +241,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -246,13 +258,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E43340-51A2-4215-9889-77C9C11C9934}">
-  <dimension ref="A4:I8"/>
+  <dimension ref="A4:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,18 +622,18 @@
         <v>6</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -618,7 +642,7 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -647,14 +671,14 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -680,10 +704,10 @@
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -696,41 +720,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
